--- a/PANAMÁ/Indígenas/Indicadores sociodemo poblaciones y PI CELADE/Tasa de desempleo - Indígenas Panama.xlsx
+++ b/PANAMÁ/Indígenas/Indicadores sociodemo poblaciones y PI CELADE/Tasa de desempleo - Indígenas Panama.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BCN\Desktop\SILVIA PLANILLA\P. Indigena El Salvador y Honduras\Panama\Sistema de indicadores sociodemograficos de poblaciones y pueblos indigenas - CELADE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\PANAMÁ\Indígenas\Indicadores sociodemo poblaciones y PI CELADE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F2EE0DF-11C8-424D-BD4A-857F62FD9625}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2FF589-9EED-4BC8-8295-830C8F684549}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Output" sheetId="1" r:id="rId1"/>
+    <sheet name="(Original) Tasa desempleo" sheetId="1" r:id="rId1"/>
+    <sheet name="Tasa desempleo" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="42">
   <si>
     <t>CEPAL/CELADE Redatam+SP 10/12/2020</t>
   </si>
@@ -113,6 +114,39 @@
   </si>
   <si>
     <t>Procesado con Redatam Webserver - CEPAL/CELADE 2007-2019.</t>
+  </si>
+  <si>
+    <t>Hombre</t>
+  </si>
+  <si>
+    <t>Ambas</t>
+  </si>
+  <si>
+    <t>Urbano</t>
+  </si>
+  <si>
+    <t>Rural</t>
+  </si>
+  <si>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>Ambos</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Zona</t>
+  </si>
+  <si>
+    <t>Grupo edad</t>
+  </si>
+  <si>
+    <t>año censo</t>
+  </si>
+  <si>
+    <t>Tasa</t>
   </si>
 </sst>
 </file>
@@ -120,7 +154,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="##\ ###\ ###\ ###\ ##0.00"/>
+    <numFmt numFmtId="164" formatCode="##\ ###\ ###\ ###\ ##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -216,21 +250,6 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -249,10 +268,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -270,6 +304,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E2914C0B-3234-4481-B689-22B3897A5D2A}" name="Tabla1" displayName="Tabla1" ref="A1:E91" totalsRowShown="0">
+  <autoFilter ref="A1:E91" xr:uid="{557BC661-98C9-40FE-86CF-5980959E8644}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{30149C18-EEF0-4643-BB93-E8523178B60E}" name="Sexo"/>
+    <tableColumn id="2" xr3:uid="{65EE171D-03F3-491C-ABBD-108E924DB83D}" name="Zona"/>
+    <tableColumn id="3" xr3:uid="{FD6F2C16-4267-4845-BE3D-9DE7F2D59312}" name="Grupo edad"/>
+    <tableColumn id="4" xr3:uid="{A325C56A-14E9-4192-8E8F-3528FAC00532}" name="año censo"/>
+    <tableColumn id="5" xr3:uid="{AE5258DA-07F0-47CF-8FB4-0B926E222647}" name="Tasa"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -598,7 +646,7 @@
   </sheetPr>
   <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:L4"/>
     </sheetView>
   </sheetViews>
@@ -613,1491 +661,1501 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
     </row>
     <row r="10" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="1"/>
+      <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="9" t="s">
+      <c r="A13" s="1"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="7">
         <v>10.57</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="7">
         <v>9.2100000000000009</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="9" t="s">
+      <c r="A14" s="1"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="7">
         <v>17.72</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="7">
         <v>14.77</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="9" t="s">
+      <c r="A15" s="1"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="7">
         <v>8.34</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="7">
         <v>8.4600000000000009</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="9" t="s">
+      <c r="A16" s="1"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="7">
         <v>5.99</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="7">
         <v>6.7</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="9" t="s">
+      <c r="A17" s="1"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="7">
         <v>6.56</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="7">
         <v>6.61</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="9" t="s">
+      <c r="A18" s="1"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="7">
         <v>9.36</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="7">
         <v>5.71</v>
       </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
+      <c r="A19" s="1"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10" t="s">
+      <c r="D19" s="4"/>
+      <c r="E19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="9" t="s">
+      <c r="A20" s="1"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="7">
         <v>12.62</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="7">
         <v>7.65</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="9" t="s">
+      <c r="A21" s="1"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="7">
         <v>22.28</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="7">
         <v>13.36</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="9" t="s">
+      <c r="A22" s="1"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="7">
         <v>10.18</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="7">
         <v>6.66</v>
       </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="9" t="s">
+      <c r="A23" s="1"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="7">
         <v>6.67</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="7">
         <v>4.67</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="9" t="s">
+      <c r="A24" s="1"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="7">
         <v>7.34</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="7">
         <v>4.71</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="9" t="s">
+      <c r="A25" s="1"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="7">
         <v>11.24</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="7">
         <v>6.22</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1" t="s">
+      <c r="A26" s="1"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="10" t="s">
+      <c r="D26" s="4"/>
+      <c r="E26" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="9" t="s">
+      <c r="A27" s="1"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="7">
         <v>9.99</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="7">
         <v>9.94</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="9" t="s">
+      <c r="A28" s="1"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="7">
         <v>16.5</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="7">
         <v>15.46</v>
       </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="9" t="s">
+      <c r="A29" s="1"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="7">
         <v>7.69</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="7">
         <v>9.39</v>
       </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="9" t="s">
+      <c r="A30" s="1"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="7">
         <v>5.78</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="7">
         <v>7.71</v>
       </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="9" t="s">
+      <c r="A31" s="1"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="7">
         <v>6.35</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="7">
         <v>7.44</v>
       </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="9" t="s">
+      <c r="A32" s="1"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="7">
         <v>9.16</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="7">
         <v>5.6</v>
       </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1" t="s">
+      <c r="A33" s="1"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="10" t="s">
+      <c r="D33" s="4"/>
+      <c r="E33" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
     </row>
     <row r="34" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="9" t="s">
+      <c r="A34" s="1"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="7">
         <v>11.86</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="7">
         <v>8.98</v>
       </c>
-      <c r="G34" s="11"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
     </row>
     <row r="35" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="9" t="s">
+      <c r="A35" s="1"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="7">
         <v>18.850000000000001</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="7">
         <v>16.03</v>
       </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
     </row>
     <row r="36" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="9" t="s">
+      <c r="A36" s="1"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="7">
         <v>11.44</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F36" s="7">
         <v>8.76</v>
       </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
     </row>
     <row r="37" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="9" t="s">
+      <c r="A37" s="1"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="7">
         <v>6.58</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F37" s="7">
         <v>6</v>
       </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
     </row>
     <row r="38" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="9" t="s">
+      <c r="A38" s="1"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="7">
         <v>4.3899999999999997</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F38" s="7">
         <v>3.64</v>
       </c>
-      <c r="G38" s="11"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
     </row>
     <row r="39" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="9" t="s">
+      <c r="A39" s="1"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="7">
         <v>3.11</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F39" s="7">
         <v>3.74</v>
       </c>
-      <c r="G39" s="11"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
     </row>
     <row r="40" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1" t="s">
+      <c r="A40" s="1"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="10" t="s">
+      <c r="D40" s="4"/>
+      <c r="E40" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="11"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
     </row>
     <row r="41" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="9" t="s">
+      <c r="A41" s="1"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="7">
         <v>20.95</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F41" s="7">
         <v>11.27</v>
       </c>
-      <c r="G41" s="11"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
     </row>
     <row r="42" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="9" t="s">
+      <c r="A42" s="1"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="7">
         <v>28.86</v>
       </c>
-      <c r="F42" s="12">
+      <c r="F42" s="7">
         <v>18.72</v>
       </c>
-      <c r="G42" s="11"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
     </row>
     <row r="43" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="9" t="s">
+      <c r="A43" s="1"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E43" s="7">
         <v>21.3</v>
       </c>
-      <c r="F43" s="12">
+      <c r="F43" s="7">
         <v>11.29</v>
       </c>
-      <c r="G43" s="11"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
     </row>
     <row r="44" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="9" t="s">
+      <c r="A44" s="1"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E44" s="7">
         <v>11.93</v>
       </c>
-      <c r="F44" s="12">
+      <c r="F44" s="7">
         <v>7.23</v>
       </c>
-      <c r="G44" s="11"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
     </row>
     <row r="45" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="9" t="s">
+      <c r="A45" s="1"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E45" s="7">
         <v>11.38</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F45" s="7">
         <v>4.1500000000000004</v>
       </c>
-      <c r="G45" s="11"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
     </row>
     <row r="46" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="9" t="s">
+      <c r="A46" s="1"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="7">
         <v>7.69</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F46" s="7">
         <v>9.09</v>
       </c>
-      <c r="G46" s="11"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
     </row>
     <row r="47" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1" t="s">
+      <c r="A47" s="1"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="10" t="s">
+      <c r="D47" s="4"/>
+      <c r="E47" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="11"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
     </row>
     <row r="48" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="9" t="s">
+      <c r="A48" s="1"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E48" s="7">
         <v>7.74</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F48" s="7">
         <v>7.14</v>
       </c>
-      <c r="G48" s="11"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
     </row>
     <row r="49" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="9" t="s">
+      <c r="A49" s="1"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E49" s="7">
         <v>13.9</v>
       </c>
-      <c r="F49" s="12">
+      <c r="F49" s="7">
         <v>13.72</v>
       </c>
-      <c r="G49" s="11"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
     </row>
     <row r="50" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="9" t="s">
+      <c r="A50" s="1"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E50" s="7">
         <v>6.56</v>
       </c>
-      <c r="F50" s="12">
+      <c r="F50" s="7">
         <v>6.36</v>
       </c>
-      <c r="G50" s="11"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
     </row>
     <row r="51" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="9" t="s">
+      <c r="A51" s="1"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E51" s="7">
         <v>4.0199999999999996</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F51" s="7">
         <v>5.01</v>
       </c>
-      <c r="G51" s="11"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
     </row>
     <row r="52" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="9" t="s">
+      <c r="A52" s="1"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E52" s="12">
+      <c r="E52" s="7">
         <v>2.0499999999999998</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F52" s="7">
         <v>3.3</v>
       </c>
-      <c r="G52" s="11"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
     </row>
     <row r="53" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="9" t="s">
+      <c r="A53" s="1"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E53" s="12">
+      <c r="E53" s="7">
         <v>2.4500000000000002</v>
       </c>
-      <c r="F53" s="12">
+      <c r="F53" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G53" s="11"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
     </row>
     <row r="54" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1" t="s">
+      <c r="A54" s="1"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D54" s="9"/>
-      <c r="E54" s="10" t="s">
+      <c r="D54" s="4"/>
+      <c r="E54" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="10" t="s">
+      <c r="F54" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G54" s="11"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
     </row>
     <row r="55" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="9" t="s">
+      <c r="A55" s="1"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E55" s="7">
         <v>14.57</v>
       </c>
-      <c r="F55" s="12">
+      <c r="F55" s="7">
         <v>8.65</v>
       </c>
-      <c r="G55" s="11"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
     </row>
     <row r="56" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="9" t="s">
+      <c r="A56" s="1"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E56" s="12">
+      <c r="E56" s="7">
         <v>24.13</v>
       </c>
-      <c r="F56" s="12">
+      <c r="F56" s="7">
         <v>14.89</v>
       </c>
-      <c r="G56" s="11"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
     </row>
     <row r="57" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="9" t="s">
+      <c r="A57" s="1"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E57" s="7">
         <v>12.67</v>
       </c>
-      <c r="F57" s="12">
+      <c r="F57" s="7">
         <v>7.98</v>
       </c>
-      <c r="G57" s="11"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
     </row>
     <row r="58" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="9" t="s">
+      <c r="A58" s="1"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E58" s="7">
         <v>7.92</v>
       </c>
-      <c r="F58" s="12">
+      <c r="F58" s="7">
         <v>5.39</v>
       </c>
-      <c r="G58" s="11"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
     </row>
     <row r="59" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="9" t="s">
+      <c r="A59" s="1"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="12">
+      <c r="E59" s="7">
         <v>8.0500000000000007</v>
       </c>
-      <c r="F59" s="12">
+      <c r="F59" s="7">
         <v>4.5599999999999996</v>
       </c>
-      <c r="G59" s="11"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
     </row>
     <row r="60" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="9" t="s">
+      <c r="A60" s="1"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E60" s="7">
         <v>10.78</v>
       </c>
-      <c r="F60" s="12">
+      <c r="F60" s="7">
         <v>6.68</v>
       </c>
-      <c r="G60" s="11"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
     </row>
     <row r="61" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1" t="s">
+      <c r="A61" s="1"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D61" s="9"/>
-      <c r="E61" s="10" t="s">
+      <c r="D61" s="4"/>
+      <c r="E61" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F61" s="10" t="s">
+      <c r="F61" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G61" s="11"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
     </row>
     <row r="62" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="9" t="s">
+      <c r="A62" s="1"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E62" s="12">
+      <c r="E62" s="7">
         <v>9.6199999999999992</v>
       </c>
-      <c r="F62" s="12">
+      <c r="F62" s="7">
         <v>9.43</v>
       </c>
-      <c r="G62" s="11"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
     </row>
     <row r="63" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="6"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="9" t="s">
+      <c r="A63" s="1"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E63" s="12">
+      <c r="E63" s="7">
         <v>16.05</v>
       </c>
-      <c r="F63" s="12">
+      <c r="F63" s="7">
         <v>15.14</v>
       </c>
-      <c r="G63" s="11"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
     </row>
     <row r="64" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="9" t="s">
+      <c r="A64" s="1"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E64" s="7">
         <v>7.5</v>
       </c>
-      <c r="F64" s="12">
+      <c r="F64" s="7">
         <v>8.85</v>
       </c>
-      <c r="G64" s="11"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
     </row>
     <row r="65" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="6"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="9" t="s">
+      <c r="A65" s="1"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E65" s="12">
+      <c r="E65" s="7">
         <v>5.48</v>
       </c>
-      <c r="F65" s="12">
+      <c r="F65" s="7">
         <v>7.19</v>
       </c>
-      <c r="G65" s="11"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
     </row>
     <row r="66" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="6"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="9" t="s">
+      <c r="A66" s="1"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E66" s="12">
+      <c r="E66" s="7">
         <v>5.73</v>
       </c>
-      <c r="F66" s="12">
+      <c r="F66" s="7">
         <v>6.66</v>
       </c>
-      <c r="G66" s="11"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
     </row>
     <row r="67" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="9" t="s">
+      <c r="A67" s="1"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E67" s="12">
+      <c r="E67" s="7">
         <v>8.5</v>
       </c>
-      <c r="F67" s="12">
+      <c r="F67" s="7">
         <v>5.14</v>
       </c>
-      <c r="G67" s="11"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
     </row>
     <row r="68" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="6"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1" t="s">
+      <c r="A68" s="1"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="9"/>
-      <c r="E68" s="10" t="s">
+      <c r="D68" s="4"/>
+      <c r="E68" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F68" s="10" t="s">
+      <c r="F68" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G68" s="11"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
     </row>
     <row r="69" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="6"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="9" t="s">
+      <c r="A69" s="1"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E69" s="12">
+      <c r="E69" s="7">
         <v>10.8</v>
       </c>
-      <c r="F69" s="12">
+      <c r="F69" s="7">
         <v>9.16</v>
       </c>
-      <c r="G69" s="11"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
     </row>
     <row r="70" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="9" t="s">
+      <c r="A70" s="1"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E70" s="12">
+      <c r="E70" s="7">
         <v>17.95</v>
       </c>
-      <c r="F70" s="12">
+      <c r="F70" s="7">
         <v>15.05</v>
       </c>
-      <c r="G70" s="11"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
     </row>
     <row r="71" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="6"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="9" t="s">
+      <c r="A71" s="1"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E71" s="12">
+      <c r="E71" s="7">
         <v>8.91</v>
       </c>
-      <c r="F71" s="12">
+      <c r="F71" s="7">
         <v>8.52</v>
       </c>
-      <c r="G71" s="11"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
     </row>
     <row r="72" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="6"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="9" t="s">
+      <c r="A72" s="1"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E72" s="12">
+      <c r="E72" s="7">
         <v>6.1</v>
       </c>
-      <c r="F72" s="12">
+      <c r="F72" s="7">
         <v>6.54</v>
       </c>
-      <c r="G72" s="11"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
-      <c r="L72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
     </row>
     <row r="73" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="6"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="9" t="s">
+      <c r="A73" s="1"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E73" s="12">
+      <c r="E73" s="7">
         <v>6.23</v>
       </c>
-      <c r="F73" s="12">
+      <c r="F73" s="7">
         <v>5.98</v>
       </c>
-      <c r="G73" s="11"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
     </row>
     <row r="74" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="6"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="9" t="s">
+      <c r="A74" s="1"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E74" s="12">
+      <c r="E74" s="7">
         <v>8.7200000000000006</v>
       </c>
-      <c r="F74" s="12">
+      <c r="F74" s="7">
         <v>5.43</v>
       </c>
-      <c r="G74" s="11"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
     </row>
     <row r="75" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="6"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
+      <c r="A75" s="1"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
     </row>
     <row r="76" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="6"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="1"/>
     </row>
     <row r="77" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="6"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="A76:K76"/>
     <mergeCell ref="B12:B74"/>
     <mergeCell ref="C12:C18"/>
@@ -2109,19 +2167,1579 @@
     <mergeCell ref="C54:C60"/>
     <mergeCell ref="C61:C67"/>
     <mergeCell ref="C68:C74"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A06488-B8B5-401B-A8D8-F8BCA74FA69D}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:E91"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="A1:L1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2">
+        <v>2000</v>
+      </c>
+      <c r="E2">
+        <v>17.72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>2000</v>
+      </c>
+      <c r="E3">
+        <v>8.34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>2000</v>
+      </c>
+      <c r="E4">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>2000</v>
+      </c>
+      <c r="E5">
+        <v>6.56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>2000</v>
+      </c>
+      <c r="E6">
+        <v>9.36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>2010</v>
+      </c>
+      <c r="E7">
+        <v>14.77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>2010</v>
+      </c>
+      <c r="E8">
+        <v>8.4600000000000009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>2010</v>
+      </c>
+      <c r="E9">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>2010</v>
+      </c>
+      <c r="E10">
+        <v>6.61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>2010</v>
+      </c>
+      <c r="E11">
+        <v>5.71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>2000</v>
+      </c>
+      <c r="E12">
+        <v>22.28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <v>2000</v>
+      </c>
+      <c r="E13">
+        <v>10.18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>2000</v>
+      </c>
+      <c r="E14">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>2000</v>
+      </c>
+      <c r="E15">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <v>2000</v>
+      </c>
+      <c r="E16">
+        <v>11.24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>2010</v>
+      </c>
+      <c r="E17">
+        <v>13.36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>2010</v>
+      </c>
+      <c r="E18">
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <v>2010</v>
+      </c>
+      <c r="E19">
+        <v>4.67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>2010</v>
+      </c>
+      <c r="E20">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>2010</v>
+      </c>
+      <c r="E21">
+        <v>6.22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>2000</v>
+      </c>
+      <c r="E22">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23">
+        <v>2000</v>
+      </c>
+      <c r="E23">
+        <v>7.69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24">
+        <v>2000</v>
+      </c>
+      <c r="E24">
+        <v>5.78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>2000</v>
+      </c>
+      <c r="E25">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26">
+        <v>2000</v>
+      </c>
+      <c r="E26">
+        <v>9.16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27">
+        <v>2010</v>
+      </c>
+      <c r="E27">
+        <v>15.46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28">
+        <v>2010</v>
+      </c>
+      <c r="E28">
+        <v>9.39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29">
+        <v>2010</v>
+      </c>
+      <c r="E29">
+        <v>7.71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <v>2010</v>
+      </c>
+      <c r="E30">
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31">
+        <v>2010</v>
+      </c>
+      <c r="E31">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32">
+        <v>2000</v>
+      </c>
+      <c r="E32">
+        <v>18.850000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33">
+        <v>2000</v>
+      </c>
+      <c r="E33">
+        <v>11.44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34">
+        <v>2000</v>
+      </c>
+      <c r="E34">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35">
+        <v>2000</v>
+      </c>
+      <c r="E35">
+        <v>4.3899999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36">
+        <v>2000</v>
+      </c>
+      <c r="E36">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37">
+        <v>2010</v>
+      </c>
+      <c r="E37">
+        <v>16.03</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38">
+        <v>2010</v>
+      </c>
+      <c r="E38">
+        <v>8.76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39">
+        <v>2010</v>
+      </c>
+      <c r="E39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40">
+        <v>2010</v>
+      </c>
+      <c r="E40">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41">
+        <v>2010</v>
+      </c>
+      <c r="E41">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42">
+        <v>2000</v>
+      </c>
+      <c r="E42">
+        <v>28.86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43">
+        <v>2000</v>
+      </c>
+      <c r="E43">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44">
+        <v>2000</v>
+      </c>
+      <c r="E44">
+        <v>11.93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45">
+        <v>2000</v>
+      </c>
+      <c r="E45">
+        <v>11.38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46">
+        <v>2000</v>
+      </c>
+      <c r="E46">
+        <v>7.69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47">
+        <v>2010</v>
+      </c>
+      <c r="E47">
+        <v>18.72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48">
+        <v>2010</v>
+      </c>
+      <c r="E48">
+        <v>11.29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49">
+        <v>2010</v>
+      </c>
+      <c r="E49">
+        <v>7.23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50">
+        <v>2010</v>
+      </c>
+      <c r="E50">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51">
+        <v>2010</v>
+      </c>
+      <c r="E51">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52">
+        <v>2000</v>
+      </c>
+      <c r="E52">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53">
+        <v>2000</v>
+      </c>
+      <c r="E53">
+        <v>6.56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54">
+        <v>2000</v>
+      </c>
+      <c r="E54">
+        <v>4.0199999999999996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55">
+        <v>2000</v>
+      </c>
+      <c r="E55">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56">
+        <v>2000</v>
+      </c>
+      <c r="E56">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57">
+        <v>2010</v>
+      </c>
+      <c r="E57">
+        <v>13.72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58">
+        <v>2010</v>
+      </c>
+      <c r="E58">
+        <v>6.36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>35</v>
+      </c>
+      <c r="B59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59">
+        <v>2010</v>
+      </c>
+      <c r="E59">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60">
+        <v>2010</v>
+      </c>
+      <c r="E60">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>35</v>
+      </c>
+      <c r="B61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61">
+        <v>2010</v>
+      </c>
+      <c r="E61">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62">
+        <v>2000</v>
+      </c>
+      <c r="E62">
+        <v>24.13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>36</v>
+      </c>
+      <c r="B63" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63">
+        <v>2000</v>
+      </c>
+      <c r="E63">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64">
+        <v>2000</v>
+      </c>
+      <c r="E64">
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>36</v>
+      </c>
+      <c r="B65" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65">
+        <v>2000</v>
+      </c>
+      <c r="E65">
+        <v>8.0500000000000007</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66">
+        <v>2000</v>
+      </c>
+      <c r="E66">
+        <v>10.78</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>36</v>
+      </c>
+      <c r="B67" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67">
+        <v>2010</v>
+      </c>
+      <c r="E67">
+        <v>14.89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>36</v>
+      </c>
+      <c r="B68" t="s">
+        <v>33</v>
+      </c>
+      <c r="C68" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68">
+        <v>2010</v>
+      </c>
+      <c r="E68">
+        <v>7.98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>36</v>
+      </c>
+      <c r="B69" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69">
+        <v>2010</v>
+      </c>
+      <c r="E69">
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>36</v>
+      </c>
+      <c r="B70" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70">
+        <v>2010</v>
+      </c>
+      <c r="E70">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>36</v>
+      </c>
+      <c r="B71" t="s">
+        <v>33</v>
+      </c>
+      <c r="C71" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71">
+        <v>2010</v>
+      </c>
+      <c r="E71">
+        <v>6.68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72">
+        <v>2000</v>
+      </c>
+      <c r="E72">
+        <v>16.05</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>36</v>
+      </c>
+      <c r="B73" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73">
+        <v>2000</v>
+      </c>
+      <c r="E73">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>36</v>
+      </c>
+      <c r="B74" t="s">
+        <v>34</v>
+      </c>
+      <c r="C74" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74">
+        <v>2000</v>
+      </c>
+      <c r="E74">
+        <v>5.48</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>36</v>
+      </c>
+      <c r="B75" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75">
+        <v>2000</v>
+      </c>
+      <c r="E75">
+        <v>5.73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>36</v>
+      </c>
+      <c r="B76" t="s">
+        <v>34</v>
+      </c>
+      <c r="C76" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76">
+        <v>2000</v>
+      </c>
+      <c r="E76">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>36</v>
+      </c>
+      <c r="B77" t="s">
+        <v>34</v>
+      </c>
+      <c r="C77" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77">
+        <v>2010</v>
+      </c>
+      <c r="E77">
+        <v>15.14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>36</v>
+      </c>
+      <c r="B78" t="s">
+        <v>34</v>
+      </c>
+      <c r="C78" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78">
+        <v>2010</v>
+      </c>
+      <c r="E78">
+        <v>8.85</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>36</v>
+      </c>
+      <c r="B79" t="s">
+        <v>34</v>
+      </c>
+      <c r="C79" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79">
+        <v>2010</v>
+      </c>
+      <c r="E79">
+        <v>7.19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>36</v>
+      </c>
+      <c r="B80" t="s">
+        <v>34</v>
+      </c>
+      <c r="C80" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80">
+        <v>2010</v>
+      </c>
+      <c r="E80">
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>36</v>
+      </c>
+      <c r="B81" t="s">
+        <v>34</v>
+      </c>
+      <c r="C81" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81">
+        <v>2010</v>
+      </c>
+      <c r="E81">
+        <v>5.14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>36</v>
+      </c>
+      <c r="B82" t="s">
+        <v>32</v>
+      </c>
+      <c r="C82" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82">
+        <v>2000</v>
+      </c>
+      <c r="E82">
+        <v>17.95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>36</v>
+      </c>
+      <c r="B83" t="s">
+        <v>32</v>
+      </c>
+      <c r="C83" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83">
+        <v>2000</v>
+      </c>
+      <c r="E83">
+        <v>8.91</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>36</v>
+      </c>
+      <c r="B84" t="s">
+        <v>32</v>
+      </c>
+      <c r="C84" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84">
+        <v>2000</v>
+      </c>
+      <c r="E84">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>36</v>
+      </c>
+      <c r="B85" t="s">
+        <v>32</v>
+      </c>
+      <c r="C85" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85">
+        <v>2000</v>
+      </c>
+      <c r="E85">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>36</v>
+      </c>
+      <c r="B86" t="s">
+        <v>32</v>
+      </c>
+      <c r="C86" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86">
+        <v>2000</v>
+      </c>
+      <c r="E86">
+        <v>8.7200000000000006</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>36</v>
+      </c>
+      <c r="B87" t="s">
+        <v>32</v>
+      </c>
+      <c r="C87" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87">
+        <v>2010</v>
+      </c>
+      <c r="E87">
+        <v>15.05</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>36</v>
+      </c>
+      <c r="B88" t="s">
+        <v>32</v>
+      </c>
+      <c r="C88" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88">
+        <v>2010</v>
+      </c>
+      <c r="E88">
+        <v>8.52</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>36</v>
+      </c>
+      <c r="B89" t="s">
+        <v>32</v>
+      </c>
+      <c r="C89" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89">
+        <v>2010</v>
+      </c>
+      <c r="E89">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>36</v>
+      </c>
+      <c r="B90" t="s">
+        <v>32</v>
+      </c>
+      <c r="C90" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90">
+        <v>2010</v>
+      </c>
+      <c r="E90">
+        <v>5.98</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>36</v>
+      </c>
+      <c r="B91" t="s">
+        <v>32</v>
+      </c>
+      <c r="C91" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91">
+        <v>2010</v>
+      </c>
+      <c r="E91">
+        <v>5.43</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>